--- a/biology/Botanique/Les_Jardins_du_gué/Les_Jardins_du_gué.xlsx
+++ b/biology/Botanique/Les_Jardins_du_gué/Les_Jardins_du_gué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Jardins_du_gu%C3%A9</t>
+          <t>Les_Jardins_du_gué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Carte interactive des Jardins du gué
-Le parc floral des Jardins du gué est situé à Lhoumois, en France, sur le bord du Thouet, un affluent direct de la Loire ; il tire son nom d'un gué (le gué de Flais) qui permet de traverser la rivière en cet endroit. Ce parc floral fait partie des « Jardins remarquables »[1], label attribué par le Ministère de la Culture.
+Le parc floral des Jardins du gué est situé à Lhoumois, en France, sur le bord du Thouet, un affluent direct de la Loire ; il tire son nom d'un gué (le gué de Flais) qui permet de traverser la rivière en cet endroit. Ce parc floral fait partie des « Jardins remarquables », label attribué par le Ministère de la Culture.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Jardins_du_gu%C3%A9</t>
+          <t>Les_Jardins_du_gué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc floral est constitué de sept jardins, comme les sept jours de la semaine[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc floral est constitué de sept jardins, comme les sept jours de la semaine :
 le jardin des Voyageurs ;
 le jardin de l'Amour ;
 le jardin des Succulentes ;
